--- a/admin/data/product.xlsx
+++ b/admin/data/product.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bds2\admin\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,40 +21,784 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>php ebook</t>
-  </si>
-  <si>
-    <t>java ebook</t>
-  </si>
-  <si>
-    <t>laravel 5</t>
-  </si>
-  <si>
-    <t>angularjs</t>
-  </si>
-  <si>
-    <t>python</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="257">
+  <si>
+    <t>ĐỊA CHỈ</t>
+  </si>
+  <si>
+    <t>ĐƯỜNG</t>
+  </si>
+  <si>
+    <t>THÔNG SỐ</t>
+  </si>
+  <si>
+    <t>GIÁ CHÀO</t>
+  </si>
+  <si>
+    <t>ĐẦU CHỦ</t>
+  </si>
+  <si>
+    <t>HƯỚNG</t>
+  </si>
+  <si>
+    <t>ĐƯỜNG RỘNG</t>
+  </si>
+  <si>
+    <t>VỊ TRÍ</t>
+  </si>
+  <si>
+    <t>HIỆN TRẠNG</t>
+  </si>
+  <si>
+    <t>PHÁP LÝ</t>
+  </si>
+  <si>
+    <t>155.4A</t>
+  </si>
+  <si>
+    <t>An Xá ( ô tô )</t>
+  </si>
+  <si>
+    <t>22/25 5 3.2</t>
+  </si>
+  <si>
+    <t>CV Thúy P. Nữ Hoàng 0979518166</t>
+  </si>
+  <si>
+    <t>29.37</t>
+  </si>
+  <si>
+    <t>Cửa Bắc ( lô góc )</t>
+  </si>
+  <si>
+    <t>15 3 4.2</t>
+  </si>
+  <si>
+    <t>CV Tuấn P. Nhân Kiệt 0355538999</t>
+  </si>
+  <si>
+    <t>92.73</t>
+  </si>
+  <si>
+    <t>Đào Tấn</t>
+  </si>
+  <si>
+    <t>24 2 3.3</t>
+  </si>
+  <si>
+    <t>CV Cương P. Kinh Nghiệm 0904949868</t>
+  </si>
+  <si>
+    <t>83.32.2.53.2</t>
+  </si>
+  <si>
+    <t>32 3 3</t>
+  </si>
+  <si>
+    <t>CV Phương P. Thiên Khôi.</t>
+  </si>
+  <si>
+    <t>2 xe máy</t>
+  </si>
+  <si>
+    <t>ngõ cụt / 20m ô tô</t>
+  </si>
+  <si>
+    <t>chủ ở</t>
+  </si>
+  <si>
+    <t>sổ vuông</t>
+  </si>
+  <si>
+    <t>83.56 (32.2.56 Bưởi)</t>
+  </si>
+  <si>
+    <t>31/35T2 4 3</t>
+  </si>
+  <si>
+    <t>CV Tuấn P. Tài Nguyên 0917750120</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Đặng Tất</t>
+  </si>
+  <si>
+    <t>20 6 3.8</t>
+  </si>
+  <si>
+    <t>CV Hà P. Hoàng Kim 0888990666 0399963333</t>
+  </si>
+  <si>
+    <t>766.33.11</t>
+  </si>
+  <si>
+    <t>Đê La Thành</t>
+  </si>
+  <si>
+    <t>29 3 4</t>
+  </si>
+  <si>
+    <t>Đối tác Cường 091.26.29.292</t>
+  </si>
+  <si>
+    <t>720.30</t>
+  </si>
+  <si>
+    <t>35 4 3.9</t>
+  </si>
+  <si>
+    <t>CV Hiệu Phòng Thiên Khôi 0918952241</t>
+  </si>
+  <si>
+    <t>491.49.27</t>
+  </si>
+  <si>
+    <t>33 5 3</t>
+  </si>
+  <si>
+    <t>CV Chinh Khối Nhà Vua 0981138459</t>
+  </si>
+  <si>
+    <t>612.116.11</t>
+  </si>
+  <si>
+    <t>30 5 3.8</t>
+  </si>
+  <si>
+    <t>766.66</t>
+  </si>
+  <si>
+    <t>30/34T1 4 3.1</t>
+  </si>
+  <si>
+    <t>CV Đạt P. Hoàng Kim 0963289123</t>
+  </si>
+  <si>
+    <t>491.49.21</t>
+  </si>
+  <si>
+    <t>27 5 3.3</t>
+  </si>
+  <si>
+    <t>TQ Minh 0972743966 BÍ KÍP - TRƯỞNG PHÒNG</t>
+  </si>
+  <si>
+    <t>766.31.52</t>
+  </si>
+  <si>
+    <t>45 4 4</t>
+  </si>
+  <si>
+    <t>CV Vương Phòng Phú Quý, 0969404022</t>
+  </si>
+  <si>
+    <t>127.6</t>
+  </si>
+  <si>
+    <t>Đốc Ngữ</t>
+  </si>
+  <si>
+    <t>18 3 5.8</t>
+  </si>
+  <si>
+    <t>CV Von P. Thần Tốc 0977265473</t>
+  </si>
+  <si>
+    <t>294.8.63B</t>
+  </si>
+  <si>
+    <t>Đội Cấn</t>
+  </si>
+  <si>
+    <t>15/18T2 5 3.5</t>
+  </si>
+  <si>
+    <t>CV Thái P. Thần Tốc 0982223318</t>
+  </si>
+  <si>
+    <t>444.41.10</t>
+  </si>
+  <si>
+    <t>27 3 4</t>
+  </si>
+  <si>
+    <t>CV Hậu Phòng Đại Cát.</t>
+  </si>
+  <si>
+    <t>22C</t>
+  </si>
+  <si>
+    <t>14/18T2 4 5</t>
+  </si>
+  <si>
+    <t>ĐT Hậu 0987.253.368</t>
+  </si>
+  <si>
+    <t>90.26</t>
+  </si>
+  <si>
+    <t>27 3 4.4</t>
+  </si>
+  <si>
+    <t>Chuyên viên Sáng Phòng Vương Gia.</t>
+  </si>
+  <si>
+    <t>216.9</t>
+  </si>
+  <si>
+    <t>17/23 5 3</t>
+  </si>
+  <si>
+    <t>CV Lan Anh P. Doanh Nhân 0989926797</t>
+  </si>
+  <si>
+    <t>285.149.23B</t>
+  </si>
+  <si>
+    <t>22 4 3</t>
+  </si>
+  <si>
+    <t>CV Hoàng Hiếu P. Nữ Hoàng 0913358836</t>
+  </si>
+  <si>
+    <t>172A</t>
+  </si>
+  <si>
+    <t>21 4 2.9</t>
+  </si>
+  <si>
+    <t>CV Oanh P. TQ Giang 0915332656 0936686188.</t>
+  </si>
+  <si>
+    <t>285.27</t>
+  </si>
+  <si>
+    <t>30 2 4.5</t>
+  </si>
+  <si>
+    <t>CV Hà P. Hoàng Kim 0888990666.</t>
+  </si>
+  <si>
+    <t>189.2</t>
+  </si>
+  <si>
+    <t>25 4 4.3</t>
+  </si>
+  <si>
+    <t>CV Chương Phòng Thiên Khôi 0914331992</t>
+  </si>
+  <si>
+    <t>210.23.9</t>
+  </si>
+  <si>
+    <t>34 3 3</t>
+  </si>
+  <si>
+    <t>Thư ký Truyền 0969792256 0911422393 BÍ KÍP - NHÀ VUA</t>
+  </si>
+  <si>
+    <t>6.30.18.12</t>
+  </si>
+  <si>
+    <t>Đội Nhân ( N )</t>
+  </si>
+  <si>
+    <t>21/25 5 3.4</t>
+  </si>
+  <si>
+    <t>TN Sự P. Trạng Nguyên 0983965705 0915646894</t>
+  </si>
+  <si>
+    <t>32.1C</t>
+  </si>
+  <si>
+    <t>Đường Bưởi</t>
+  </si>
+  <si>
+    <t>21/42 C4 3.1</t>
+  </si>
+  <si>
+    <t>Tướng quân Mừng 0936059869</t>
+  </si>
+  <si>
+    <t>376.56.29.10</t>
+  </si>
+  <si>
+    <t>39 C4 3.5</t>
+  </si>
+  <si>
+    <t>CV Tuấn Anh Khối Thiên Khôi 0936062555, 0912026565</t>
+  </si>
+  <si>
+    <t>307.24</t>
+  </si>
+  <si>
+    <t>Giảng Võ</t>
+  </si>
+  <si>
+    <t>23 5 3.2</t>
+  </si>
+  <si>
+    <t>2 XE MÁY</t>
+  </si>
+  <si>
+    <t>NGÕ CỤT</t>
+  </si>
+  <si>
+    <t>MỚI / MT BÉ / CÓ KHE THOÁNG CẠNH</t>
+  </si>
+  <si>
+    <t>SỔ XẤU</t>
+  </si>
+  <si>
+    <t>Hàng Bún</t>
+  </si>
+  <si>
+    <t>20/26T1 2 4</t>
+  </si>
+  <si>
+    <t>TQ Thi 0985296136.</t>
+  </si>
+  <si>
+    <t>173.68.41.21</t>
+  </si>
+  <si>
+    <t>Hoàng Hoa Thám</t>
+  </si>
+  <si>
+    <t>25 3 3.6</t>
+  </si>
+  <si>
+    <t>TN Cao 0985958754 0384143263</t>
+  </si>
+  <si>
+    <t>151.37</t>
+  </si>
+  <si>
+    <t>15/20 2 2/2.9</t>
+  </si>
+  <si>
+    <t>CV Hiệu P. Số 1 0987552472</t>
+  </si>
+  <si>
+    <t>628.4.6</t>
+  </si>
+  <si>
+    <t>19 4 3</t>
+  </si>
+  <si>
+    <t>173.68.81.21</t>
+  </si>
+  <si>
+    <t>16 5 2.7</t>
+  </si>
+  <si>
+    <t>CV Nam P. Thăng Hoa 0979934340</t>
+  </si>
+  <si>
+    <t>400.19B</t>
+  </si>
+  <si>
+    <t>44 5 4</t>
+  </si>
+  <si>
+    <t>515.13.34A</t>
+  </si>
+  <si>
+    <t>32 6 3.6</t>
+  </si>
+  <si>
+    <t>ĐB Trường.</t>
+  </si>
+  <si>
+    <t>515.38.6</t>
+  </si>
+  <si>
+    <t>28 4 4.1</t>
+  </si>
+  <si>
+    <t>CV Luyến Khối Nhà Vua. 0.9.4.6.5.5.3.6.5.5</t>
+  </si>
+  <si>
+    <t>189.61.20</t>
+  </si>
+  <si>
+    <t>Hoàng Hoa Thám ( ở )</t>
+  </si>
+  <si>
+    <t>38 3 4</t>
+  </si>
+  <si>
+    <t>192.33</t>
+  </si>
+  <si>
+    <t>Kim Mã</t>
+  </si>
+  <si>
+    <t>19/25T1 4 4</t>
+  </si>
+  <si>
+    <t>CV Bảo Long P. Số 1 0912268622</t>
+  </si>
+  <si>
+    <t>82.56.15</t>
+  </si>
+  <si>
+    <t>15 5 3</t>
+  </si>
+  <si>
+    <t>CV Phương Phòng Thiên Khôi 0968811079 0904191079.</t>
+  </si>
+  <si>
+    <t>HƠI CŨ</t>
+  </si>
+  <si>
+    <t>169.21.1B</t>
+  </si>
+  <si>
+    <t>20 3 3.3</t>
+  </si>
+  <si>
+    <t>Thư ký Truyền 0969792256 0911422393</t>
+  </si>
+  <si>
+    <t>82.122.22</t>
+  </si>
+  <si>
+    <t>39 4 4</t>
+  </si>
+  <si>
+    <t>82.8.9</t>
+  </si>
+  <si>
+    <t>27 4 5.5</t>
+  </si>
+  <si>
+    <t>CV Hà Phòng Hoàng Kim</t>
+  </si>
+  <si>
+    <t>24.11A</t>
+  </si>
+  <si>
+    <t>34/40T2 3 4.9</t>
+  </si>
+  <si>
+    <t>CV Lực P. Thiên Khôi 0972870049</t>
+  </si>
+  <si>
+    <t>429.1.9</t>
+  </si>
+  <si>
+    <t>36 2 3.6</t>
+  </si>
+  <si>
+    <t>429.26</t>
+  </si>
+  <si>
+    <t>29/31T2 4 3</t>
+  </si>
+  <si>
+    <t>192.186.82.14</t>
+  </si>
+  <si>
+    <t>28/32 4 4</t>
+  </si>
+  <si>
+    <t>CV Hà P. Hoàng Kim 0399963333 0888990666</t>
+  </si>
+  <si>
+    <t>241.10</t>
+  </si>
+  <si>
+    <t>30 3 3</t>
+  </si>
+  <si>
+    <t>CV Lực K. Thiên Khôi 0972870049</t>
+  </si>
+  <si>
+    <t>29.Đ.7A</t>
+  </si>
+  <si>
+    <t>Láng Hạ</t>
+  </si>
+  <si>
+    <t>15 C4 3.1</t>
+  </si>
+  <si>
+    <t>CV Lực Khối Thiên Khôi 0972870049</t>
+  </si>
+  <si>
+    <t>29.8B(P.8B Nhà D)</t>
+  </si>
+  <si>
+    <t>20/25 4 3.4</t>
+  </si>
+  <si>
+    <t>CV Lợi P. Thần Tốc 0979788750</t>
+  </si>
+  <si>
+    <t>29.29</t>
+  </si>
+  <si>
+    <t>Nghĩa Dũng</t>
+  </si>
+  <si>
+    <t>18/28 4 6.5</t>
+  </si>
+  <si>
+    <t>CV Luyến P. Nhà Vua 0946553655</t>
+  </si>
+  <si>
+    <t>93.17.6</t>
+  </si>
+  <si>
+    <t>32 Đất 3.4</t>
+  </si>
+  <si>
+    <t>CV Phan Tuấn Khối Số 1 0902110050</t>
+  </si>
+  <si>
+    <t>111.2</t>
+  </si>
+  <si>
+    <t>26/30T2 5 3.1</t>
+  </si>
+  <si>
+    <t>49B</t>
+  </si>
+  <si>
+    <t>Ngõ Núi Trúc</t>
+  </si>
+  <si>
+    <t>26/56T1 6 3.9</t>
+  </si>
+  <si>
+    <t>TN Cao P. Trạng Nguyên 0985958754 0384143263</t>
+  </si>
+  <si>
+    <t>158.21A</t>
+  </si>
+  <si>
+    <t>Ngọc Hà</t>
+  </si>
+  <si>
+    <t>18 4 3</t>
+  </si>
+  <si>
+    <t>158.21A.1A</t>
+  </si>
+  <si>
+    <t>8 4 3.1</t>
+  </si>
+  <si>
+    <t>88.55</t>
+  </si>
+  <si>
+    <t>33/38 2 3.7</t>
+  </si>
+  <si>
+    <t>TQ Thi. BÍ KÍP - ĐẠI CÁT</t>
+  </si>
+  <si>
+    <t>158.2.49.13</t>
+  </si>
+  <si>
+    <t>38 3 3.4</t>
+  </si>
+  <si>
+    <t>CV Khánh Hoàng Khối Thiên Khôi 0327363636/ 0964104386</t>
+  </si>
+  <si>
+    <t>94.93</t>
+  </si>
+  <si>
+    <t>Ngọc Khánh</t>
+  </si>
+  <si>
+    <t>31/ 46 3 5</t>
+  </si>
+  <si>
+    <t>CV Oanh P. TQ Giang 0915332656 0936686188</t>
+  </si>
+  <si>
+    <t>4,5 XE MÁY</t>
+  </si>
+  <si>
+    <t>NGÕ THÔNG</t>
+  </si>
+  <si>
+    <t>ĐẤT</t>
+  </si>
+  <si>
+    <t>SỔ VUÔNG làm mới chỉ 21m2</t>
+  </si>
+  <si>
+    <t>70.42A</t>
+  </si>
+  <si>
+    <t>24 C4 4.6</t>
+  </si>
+  <si>
+    <t>CV My Khối Nhà Vua 0912858522</t>
+  </si>
+  <si>
+    <t>100 (100.5)</t>
+  </si>
+  <si>
+    <t>Phó Đức Chính</t>
+  </si>
+  <si>
+    <t>10/13 4 3</t>
+  </si>
+  <si>
+    <t>71.154.22</t>
+  </si>
+  <si>
+    <t>Tân Ấp</t>
+  </si>
+  <si>
+    <t>21 2 3.6</t>
+  </si>
+  <si>
+    <t>Thư ký Trần Ngọc 0839.668.279 038.5513.345</t>
+  </si>
+  <si>
+    <t>133.71</t>
+  </si>
+  <si>
+    <t>24/28T2 4 3</t>
+  </si>
+  <si>
+    <t>42.7A</t>
+  </si>
+  <si>
+    <t>Thành Công</t>
+  </si>
+  <si>
+    <t>25/28T1 5 3.1</t>
+  </si>
+  <si>
+    <t>CV Liên P. Sao Thổ 0912842165</t>
+  </si>
+  <si>
+    <t>6.14C</t>
+  </si>
+  <si>
+    <t>Vạn Phúc</t>
+  </si>
+  <si>
+    <t>26 2 7</t>
+  </si>
+  <si>
+    <t>127.56.12</t>
+  </si>
+  <si>
+    <t>Văn Cao</t>
+  </si>
+  <si>
+    <t>22.5 3 3.4</t>
+  </si>
+  <si>
+    <t>Chuyên viên Thanh Tuyền Phòng Doanh Nhân 0984874893</t>
+  </si>
+  <si>
+    <t>67.57</t>
+  </si>
+  <si>
+    <t>21/26 5 3.4</t>
+  </si>
+  <si>
+    <t>CV Nam P. Thái Dương 0963454616</t>
+  </si>
+  <si>
+    <t>67.59</t>
+  </si>
+  <si>
+    <t>20/24 5 3</t>
+  </si>
+  <si>
+    <t>38/44 4 3</t>
+  </si>
+  <si>
+    <t>67.3</t>
+  </si>
+  <si>
+    <t>127.90</t>
+  </si>
+  <si>
+    <t>11/13 4 3</t>
+  </si>
+  <si>
+    <t>127.15.1.15</t>
+  </si>
+  <si>
+    <t>Văn Cao ( ko sổ )</t>
+  </si>
+  <si>
+    <t>12/17T2 5 4</t>
+  </si>
+  <si>
+    <t>CV Hoàng Mạnh Phòng Nữ Hoàng</t>
+  </si>
+  <si>
+    <t>75.36</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>28/30 3.5 4.6</t>
+  </si>
+  <si>
+    <t>CV Hoàng Khối Thiên Khôi 0327363636/0964104386</t>
+  </si>
+  <si>
+    <t>58C ( 515.13.20 Hoàng Hoa Thám )</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc 2</t>
+  </si>
+  <si>
+    <t>49 C4 5.9</t>
+  </si>
+  <si>
+    <t>CV Hà P. Hoàng Kim 0888990666 0931722216</t>
+  </si>
+  <si>
+    <t>3 XE MÁY</t>
+  </si>
+  <si>
+    <t>SỔ VUÔNG</t>
+  </si>
+  <si>
+    <t>82.208.38</t>
+  </si>
+  <si>
+    <t>20 4 3.5</t>
+  </si>
+  <si>
+    <t>CV Cường Phòng Đại Cát 0912629292</t>
+  </si>
+  <si>
+    <t>81.4.10</t>
+  </si>
+  <si>
+    <t>Hoà Bình 7 (Minh Khai)</t>
+  </si>
+  <si>
+    <t>39 3 3.3</t>
+  </si>
+  <si>
+    <t>CV Cường P. Đại Cát 091.26.29.292</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +806,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D2129"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="10"/>
+      <color rgb="FFFF00FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D2129"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,8 +893,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -89,6 +959,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -137,7 +1010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -172,7 +1045,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,100 +1254,1736 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2.35</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.85</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2.15</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1.85</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1.98</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2.65</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.68</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2.75</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2.95</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2.85</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B28" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1.95</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1.65</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1.95</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="15">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="12">
+        <v>3</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1.9</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="19">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E40" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2.95</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="12">
+        <v>3</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="12">
+        <v>3</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="12">
+        <v>2</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1.45</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1.92</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="15">
+        <v>2.99</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="7">
+        <v>3</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D60" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" s="12">
+        <v>1.45</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" s="12">
+        <v>2.85</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D68" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D71" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>60</v>
-      </c>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="12">
+        <v>2.95</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J74" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="12">
+        <v>2.15</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D76" s="12">
+        <v>2.65</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -487,7 +2996,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -499,7 +3008,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
